--- a/Code/Results/Cases/Case_6_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_4/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.32901104595176</v>
+        <v>14.280808563104</v>
       </c>
       <c r="C2">
-        <v>10.13509633851501</v>
+        <v>7.422275239810188</v>
       </c>
       <c r="D2">
-        <v>5.268905119083214</v>
+        <v>5.292033880305283</v>
       </c>
       <c r="E2">
-        <v>7.098127763050509</v>
+        <v>8.365743828674809</v>
       </c>
       <c r="F2">
-        <v>37.65061327635325</v>
+        <v>21.69347935158381</v>
       </c>
       <c r="G2">
-        <v>2.099088550372281</v>
+        <v>2.109799348403747</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.15785273393341</v>
+        <v>11.44274644294941</v>
       </c>
       <c r="L2">
-        <v>7.137413310248014</v>
+        <v>6.748395816946943</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.00872881947355</v>
+        <v>17.96871586543241</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.91170902363399</v>
+        <v>13.3109778143386</v>
       </c>
       <c r="C3">
-        <v>9.62563350347102</v>
+        <v>7.456654295852324</v>
       </c>
       <c r="D3">
-        <v>5.327997284922867</v>
+        <v>5.193997356772365</v>
       </c>
       <c r="E3">
-        <v>7.053209089945459</v>
+        <v>8.245709132703119</v>
       </c>
       <c r="F3">
-        <v>36.08888317702576</v>
+        <v>21.41258233096123</v>
       </c>
       <c r="G3">
-        <v>2.109488678557598</v>
+        <v>2.115023108673292</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.03038140292995</v>
+        <v>10.80245124495754</v>
       </c>
       <c r="L3">
-        <v>6.910272795219284</v>
+        <v>6.546262891526276</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.95508116188327</v>
+        <v>17.96314806083368</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.07481804908839</v>
+        <v>12.68054897353364</v>
       </c>
       <c r="C4">
-        <v>9.300425764399058</v>
+        <v>7.478945268951098</v>
       </c>
       <c r="D4">
-        <v>5.365351946130065</v>
+        <v>5.13246038191242</v>
       </c>
       <c r="E4">
-        <v>7.029266208339038</v>
+        <v>8.1765561559447</v>
       </c>
       <c r="F4">
-        <v>35.1316888416296</v>
+        <v>21.25731269055827</v>
       </c>
       <c r="G4">
-        <v>2.116019172052475</v>
+        <v>2.118330329228823</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.30204054186759</v>
+        <v>10.38936022235855</v>
       </c>
       <c r="L4">
-        <v>6.772599427140327</v>
+        <v>6.422507290311312</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.31644472251059</v>
+        <v>17.97416278697817</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.72599107225292</v>
+        <v>12.4147991475836</v>
       </c>
       <c r="C5">
-        <v>9.164801643269783</v>
+        <v>7.48832556091443</v>
       </c>
       <c r="D5">
-        <v>5.380838648767711</v>
+        <v>5.10706248971739</v>
       </c>
       <c r="E5">
-        <v>7.020393081619367</v>
+        <v>8.149524423827598</v>
       </c>
       <c r="F5">
-        <v>34.74239383545221</v>
+        <v>21.19830632869471</v>
       </c>
       <c r="G5">
-        <v>2.118719248165827</v>
+        <v>2.119703733458045</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.99603361368077</v>
+        <v>10.21606041587272</v>
       </c>
       <c r="L5">
-        <v>6.716996921121797</v>
+        <v>6.372233043310843</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.05844655198372</v>
+        <v>17.98214643675044</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.66760371056801</v>
+        <v>12.3701357304629</v>
       </c>
       <c r="C6">
-        <v>9.142095017156372</v>
+        <v>7.489901044076724</v>
       </c>
       <c r="D6">
-        <v>5.383426044096354</v>
+        <v>5.102826293440746</v>
       </c>
       <c r="E6">
-        <v>7.018972191942079</v>
+        <v>8.145105283359632</v>
       </c>
       <c r="F6">
-        <v>34.67780915957961</v>
+        <v>21.18876413822671</v>
       </c>
       <c r="G6">
-        <v>2.119170007972953</v>
+        <v>2.119933354184175</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.94466188624986</v>
+        <v>10.18698635121985</v>
       </c>
       <c r="L6">
-        <v>6.707795944723125</v>
+        <v>6.363896585719023</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.01574730857596</v>
+        <v>17.98367927108239</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.07014494243511</v>
+        <v>12.67700086621868</v>
       </c>
       <c r="C7">
-        <v>9.298609203456101</v>
+        <v>7.479070574971877</v>
       </c>
       <c r="D7">
-        <v>5.365559740675948</v>
+        <v>5.132119134765339</v>
       </c>
       <c r="E7">
-        <v>7.029143004192212</v>
+        <v>8.176186941469506</v>
       </c>
       <c r="F7">
-        <v>35.12643506834652</v>
+        <v>21.25649971875493</v>
       </c>
       <c r="G7">
-        <v>2.116055425835848</v>
+        <v>2.118348746681718</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.29795105415652</v>
+        <v>10.38704304702867</v>
       </c>
       <c r="L7">
-        <v>6.771847456333628</v>
+        <v>6.421828545611544</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.31295592183992</v>
+        <v>17.974256483759</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.84056434898424</v>
+        <v>13.95363007995345</v>
       </c>
       <c r="C8">
-        <v>9.962011476116471</v>
+        <v>7.433883318873051</v>
       </c>
       <c r="D8">
-        <v>5.289054144598748</v>
+        <v>5.258519023877896</v>
       </c>
       <c r="E8">
-        <v>7.08186610777264</v>
+        <v>8.323415525421773</v>
       </c>
       <c r="F8">
-        <v>37.11195696808531</v>
+        <v>21.59302454993678</v>
       </c>
       <c r="G8">
-        <v>2.102645997857668</v>
+        <v>2.111580146980738</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.77650456417</v>
+        <v>11.22613992692797</v>
       </c>
       <c r="L8">
-        <v>7.058751677370068</v>
+        <v>6.678666360608377</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.64379611376944</v>
+        <v>17.96371984954969</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.20294462410223</v>
+        <v>16.18239899512616</v>
       </c>
       <c r="C9">
-        <v>11.16473038339193</v>
+        <v>7.354690669124811</v>
       </c>
       <c r="D9">
-        <v>5.147838313477608</v>
+        <v>5.495067261042622</v>
       </c>
       <c r="E9">
-        <v>7.215545599464243</v>
+        <v>8.647890018598375</v>
       </c>
       <c r="F9">
-        <v>41.00782045403052</v>
+        <v>22.39143724764345</v>
       </c>
       <c r="G9">
-        <v>2.077377654432101</v>
+        <v>2.099070896561901</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.39616714867861</v>
+        <v>12.7117796261952</v>
       </c>
       <c r="L9">
-        <v>7.633728556155549</v>
+        <v>7.182367394220078</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.31403903265293</v>
+        <v>18.06353778186695</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.47419438699623</v>
+        <v>17.65610026976566</v>
       </c>
       <c r="C10">
-        <v>11.989989556216</v>
+        <v>7.302318687300846</v>
       </c>
       <c r="D10">
-        <v>5.050035337215999</v>
+        <v>5.661131128665975</v>
       </c>
       <c r="E10">
-        <v>7.334294669005789</v>
+        <v>8.907514984276478</v>
       </c>
       <c r="F10">
-        <v>43.86215704747454</v>
+        <v>23.06444271855214</v>
       </c>
       <c r="G10">
-        <v>2.059251502146306</v>
+        <v>2.090304774692814</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.15996826527975</v>
+        <v>13.7047302441722</v>
       </c>
       <c r="L10">
-        <v>8.061846893963647</v>
+        <v>7.549114699783671</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.30866402384189</v>
+        <v>18.21836746600539</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.46693272588898</v>
+        <v>18.2917852768942</v>
       </c>
       <c r="C11">
-        <v>12.3534240229872</v>
+        <v>7.279774668551505</v>
       </c>
       <c r="D11">
-        <v>5.00701964842759</v>
+        <v>5.734845919203637</v>
       </c>
       <c r="E11">
-        <v>7.393263505343353</v>
+        <v>9.030090877853102</v>
       </c>
       <c r="F11">
-        <v>45.15877853299969</v>
+        <v>23.3896140941884</v>
       </c>
       <c r="G11">
-        <v>2.051052757587001</v>
+        <v>2.086399271832251</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.92982963425186</v>
+        <v>14.13503841704589</v>
       </c>
       <c r="L11">
-        <v>8.257665977213872</v>
+        <v>7.714643297593385</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.22341622044133</v>
+        <v>18.30818151749076</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.83730101257395</v>
+        <v>18.52758017089817</v>
       </c>
       <c r="C12">
-        <v>12.48940381255496</v>
+        <v>7.27142398432721</v>
       </c>
       <c r="D12">
-        <v>4.990964134979765</v>
+        <v>5.762485324097526</v>
       </c>
       <c r="E12">
-        <v>7.416349306146272</v>
+        <v>9.077137060772554</v>
       </c>
       <c r="F12">
-        <v>45.64962499967453</v>
+        <v>23.51549213317898</v>
       </c>
       <c r="G12">
-        <v>2.047950289059096</v>
+        <v>2.084931333333746</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.21690453822381</v>
+        <v>14.29491845027017</v>
       </c>
       <c r="L12">
-        <v>8.33197231063134</v>
+        <v>7.777095507147594</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.57097162604371</v>
+        <v>18.34511317777562</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.75777837157641</v>
+        <v>18.47701549837334</v>
       </c>
       <c r="C13">
-        <v>12.46018984323022</v>
+        <v>7.273214132914404</v>
       </c>
       <c r="D13">
-        <v>4.994411188505509</v>
+        <v>5.756545081825124</v>
       </c>
       <c r="E13">
-        <v>7.411343017089974</v>
+        <v>9.066977043075928</v>
       </c>
       <c r="F13">
-        <v>45.54391651471833</v>
+        <v>23.48825996940239</v>
       </c>
       <c r="G13">
-        <v>2.048618440908741</v>
+        <v>2.085247005264063</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.15527221084051</v>
+        <v>14.26062169021628</v>
       </c>
       <c r="L13">
-        <v>8.315962103936714</v>
+        <v>7.763656130313704</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.49606550026251</v>
+        <v>18.33702726456611</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.49751297592863</v>
+        <v>18.31128258799921</v>
       </c>
       <c r="C14">
-        <v>12.36464361416837</v>
+        <v>7.279083906738841</v>
       </c>
       <c r="D14">
-        <v>5.005693928109036</v>
+        <v>5.737125400751381</v>
       </c>
       <c r="E14">
-        <v>7.395147378752194</v>
+        <v>9.033948858347012</v>
       </c>
       <c r="F14">
-        <v>45.19916289775401</v>
+        <v>23.39991515431533</v>
       </c>
       <c r="G14">
-        <v>2.050797499200829</v>
+        <v>2.086278288370626</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.95353540314867</v>
+        <v>14.14825326786213</v>
       </c>
       <c r="L14">
-        <v>8.263776065010587</v>
+        <v>7.719786103177229</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.25198577939803</v>
+        <v>18.3111606073861</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.33737707694312</v>
+        <v>18.20912697985408</v>
       </c>
       <c r="C15">
-        <v>12.30590721011321</v>
+        <v>7.282703636184136</v>
       </c>
       <c r="D15">
-        <v>5.01263608018365</v>
+        <v>5.725194167241885</v>
       </c>
       <c r="E15">
-        <v>7.385326855128688</v>
+        <v>9.013799707365704</v>
       </c>
       <c r="F15">
-        <v>44.98797604622855</v>
+        <v>23.34615876381295</v>
       </c>
       <c r="G15">
-        <v>2.052132379870772</v>
+        <v>2.086911384579327</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.8293925259641</v>
+        <v>14.07902512862489</v>
       </c>
       <c r="L15">
-        <v>8.231830913606728</v>
+        <v>7.692883371528982</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.10263489395392</v>
+        <v>18.29570086968744</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.40852367414894</v>
+        <v>17.61386390706393</v>
       </c>
       <c r="C16">
-        <v>11.96600339640595</v>
+        <v>7.303817930937565</v>
       </c>
       <c r="D16">
-        <v>5.052877916433104</v>
+        <v>5.656275861443045</v>
       </c>
       <c r="E16">
-        <v>7.330544168555586</v>
+        <v>8.899593160476806</v>
       </c>
       <c r="F16">
-        <v>43.77738971812246</v>
+        <v>23.04357545521139</v>
       </c>
       <c r="G16">
-        <v>2.059787879318854</v>
+        <v>2.090561593288844</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.10902017531794</v>
+        <v>13.67617864048943</v>
       </c>
       <c r="L16">
-        <v>8.04907083727287</v>
+        <v>7.538266988596387</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.24903806198627</v>
+        <v>18.21289942426296</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.82851155370442</v>
+        <v>17.23984566374937</v>
       </c>
       <c r="C17">
-        <v>11.75446430764345</v>
+        <v>7.317100208475269</v>
       </c>
       <c r="D17">
-        <v>5.077956515317068</v>
+        <v>5.613519609301862</v>
       </c>
       <c r="E17">
-        <v>7.298234381742221</v>
+        <v>8.83066653099536</v>
       </c>
       <c r="F17">
-        <v>43.03430868262976</v>
+        <v>22.86282822816091</v>
       </c>
       <c r="G17">
-        <v>2.064493251605656</v>
+        <v>2.092821366043569</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.6589191918546</v>
+        <v>13.42356977599204</v>
       </c>
       <c r="L17">
-        <v>7.937222499564345</v>
+        <v>7.443048288277176</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.72732221878189</v>
+        <v>18.16716361973221</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.4910777589832</v>
+        <v>17.02144920948224</v>
       </c>
       <c r="C18">
-        <v>11.63165919311978</v>
+        <v>7.324860181505312</v>
       </c>
       <c r="D18">
-        <v>5.092518368569968</v>
+        <v>5.588755876314512</v>
       </c>
       <c r="E18">
-        <v>7.280113659602004</v>
+        <v>8.791443419770676</v>
       </c>
       <c r="F18">
-        <v>42.60672311059366</v>
+        <v>22.76065710577751</v>
       </c>
       <c r="G18">
-        <v>2.067204377273047</v>
+        <v>2.09412892256552</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.39695951327815</v>
+        <v>13.27626153814676</v>
       </c>
       <c r="L18">
-        <v>7.872989760937878</v>
+        <v>7.388160137610053</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.42793045323275</v>
+        <v>18.1426739994266</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.37616400163549</v>
+        <v>16.94694014399181</v>
       </c>
       <c r="C19">
-        <v>11.58988276830747</v>
+        <v>7.327508185973835</v>
       </c>
       <c r="D19">
-        <v>5.09747177435068</v>
+        <v>5.580342231288561</v>
       </c>
       <c r="E19">
-        <v>7.27405654469151</v>
+        <v>8.778235990209117</v>
       </c>
       <c r="F19">
-        <v>42.46191664750442</v>
+        <v>22.7263708314737</v>
       </c>
       <c r="G19">
-        <v>2.068123257491197</v>
+        <v>2.094573002143671</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.30773030676409</v>
+        <v>13.22603943791482</v>
       </c>
       <c r="L19">
-        <v>7.851258951957198</v>
+        <v>7.369556577346216</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.32667749096942</v>
+        <v>18.13469007689657</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.89064906338125</v>
+        <v>17.27999861539835</v>
       </c>
       <c r="C20">
-        <v>11.77709980808549</v>
+        <v>7.315673816103622</v>
       </c>
       <c r="D20">
-        <v>5.075272506206704</v>
+        <v>5.618088920934007</v>
       </c>
       <c r="E20">
-        <v>7.301625588663178</v>
+        <v>8.83796034788935</v>
       </c>
       <c r="F20">
-        <v>43.11342963356071</v>
+        <v>22.88188376206953</v>
       </c>
       <c r="G20">
-        <v>2.063991899218038</v>
+        <v>2.092580008509887</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.70714979617842</v>
+        <v>13.45066886270024</v>
       </c>
       <c r="L20">
-        <v>7.94911869194847</v>
+        <v>7.453197315933702</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.78278835725082</v>
+        <v>18.17184330394639</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.5741078981475</v>
+        <v>18.36009549384448</v>
       </c>
       <c r="C21">
-        <v>12.39275178413336</v>
+        <v>7.277354738643951</v>
       </c>
       <c r="D21">
-        <v>5.002373376691778</v>
+        <v>5.742836978399531</v>
       </c>
       <c r="E21">
-        <v>7.399883553442689</v>
+        <v>9.043633061933747</v>
       </c>
       <c r="F21">
-        <v>45.30042823889161</v>
+        <v>23.42578968452432</v>
       </c>
       <c r="G21">
-        <v>2.05015743575441</v>
+        <v>2.085975084185703</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.01290943503728</v>
+        <v>14.18134177393962</v>
       </c>
       <c r="L21">
-        <v>8.279100116731723</v>
+        <v>7.732678335105159</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.32364533340235</v>
+        <v>18.31867794077993</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.6420826374219</v>
+        <v>19.0373255319528</v>
       </c>
       <c r="C22">
-        <v>12.78557833582266</v>
+        <v>7.253397802150069</v>
       </c>
       <c r="D22">
-        <v>4.956105209310847</v>
+        <v>5.822760667130723</v>
       </c>
       <c r="E22">
-        <v>7.468528518032688</v>
+        <v>9.181714665099113</v>
       </c>
       <c r="F22">
-        <v>46.72897703334548</v>
+        <v>23.79725216833782</v>
       </c>
       <c r="G22">
-        <v>2.041126203352359</v>
+        <v>2.081722017043058</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.84045207800215</v>
+        <v>14.64100278517046</v>
       </c>
       <c r="L22">
-        <v>8.495669934920132</v>
+        <v>7.913980529511955</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.33753664917797</v>
+        <v>18.43172915841595</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.07494167822089</v>
+        <v>18.67847656892831</v>
       </c>
       <c r="C23">
-        <v>12.57676121607903</v>
+        <v>7.266083841676942</v>
       </c>
       <c r="D23">
-        <v>4.98066498379254</v>
+        <v>5.780254502240457</v>
       </c>
       <c r="E23">
-        <v>7.431470627964834</v>
+        <v>9.1076870985928</v>
       </c>
       <c r="F23">
-        <v>45.96654147927933</v>
+        <v>23.59753077429066</v>
       </c>
       <c r="G23">
-        <v>2.045947044798207</v>
+        <v>2.083986427897422</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.40106319801081</v>
+        <v>14.39730431814576</v>
       </c>
       <c r="L23">
-        <v>8.379995461320012</v>
+        <v>7.817352303094823</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.79572542306316</v>
+        <v>18.36978460358354</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.8625691021275</v>
+        <v>17.26185596268171</v>
       </c>
       <c r="C24">
-        <v>11.76687000578488</v>
+        <v>7.316318302598441</v>
       </c>
       <c r="D24">
-        <v>5.076485500273476</v>
+        <v>5.616023702973512</v>
       </c>
       <c r="E24">
-        <v>7.30009101128095</v>
+        <v>8.834661554709831</v>
       </c>
       <c r="F24">
-        <v>43.07766023695123</v>
+        <v>22.87326332716709</v>
       </c>
       <c r="G24">
-        <v>2.064218541782661</v>
+        <v>2.092689100076608</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.68535469425941</v>
+        <v>13.43842384493474</v>
       </c>
       <c r="L24">
-        <v>7.943740204063376</v>
+        <v>7.448609390939629</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.75771041040058</v>
+        <v>18.16972200827299</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.32911818433887</v>
+        <v>15.6084904614527</v>
       </c>
       <c r="C25">
-        <v>10.84978621741718</v>
+        <v>7.375099739804527</v>
       </c>
       <c r="D25">
-        <v>5.1850476046469</v>
+        <v>5.432375954454964</v>
       </c>
       <c r="E25">
-        <v>7.175931635579526</v>
+        <v>8.556334821586677</v>
       </c>
       <c r="F25">
-        <v>39.95491642403861</v>
+        <v>22.16037476251996</v>
       </c>
       <c r="G25">
-        <v>2.084121606117418</v>
+        <v>2.10237731702354</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.71647974153976</v>
+        <v>12.3271447363777</v>
       </c>
       <c r="L25">
-        <v>7.477085193929947</v>
+        <v>7.046464743688047</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.58578792152513</v>
+        <v>18.02279870296875</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.280808563104</v>
+        <v>14.19951985012767</v>
       </c>
       <c r="C2">
-        <v>7.422275239810188</v>
+        <v>8.463681615820214</v>
       </c>
       <c r="D2">
-        <v>5.292033880305283</v>
+        <v>5.557013241623533</v>
       </c>
       <c r="E2">
-        <v>8.365743828674809</v>
+        <v>8.249353775907236</v>
       </c>
       <c r="F2">
-        <v>21.69347935158381</v>
+        <v>16.98811129452024</v>
       </c>
       <c r="G2">
-        <v>2.109799348403747</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>20.71902963001365</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.904229945959554</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.829037892363385</v>
       </c>
       <c r="K2">
-        <v>11.44274644294941</v>
+        <v>14.6028701647539</v>
       </c>
       <c r="L2">
-        <v>6.748395816946943</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.97101726361607</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.794016127830991</v>
       </c>
       <c r="O2">
-        <v>17.96871586543241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.09888972239999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.3109778143386</v>
+        <v>13.28302717167525</v>
       </c>
       <c r="C3">
-        <v>7.456654295852324</v>
+        <v>8.369901673680015</v>
       </c>
       <c r="D3">
-        <v>5.193997356772365</v>
+        <v>5.340662625825762</v>
       </c>
       <c r="E3">
-        <v>8.245709132703119</v>
+        <v>8.139665716796138</v>
       </c>
       <c r="F3">
-        <v>21.41258233096123</v>
+        <v>16.84402295922628</v>
       </c>
       <c r="G3">
-        <v>2.115023108673292</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>20.65070178922241</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.063798492767938</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.903613662438385</v>
       </c>
       <c r="K3">
-        <v>10.80245124495754</v>
+        <v>14.76011163794604</v>
       </c>
       <c r="L3">
-        <v>6.546262891526276</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.36304503209247</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.582286968741931</v>
       </c>
       <c r="O3">
-        <v>17.96314806083368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.18014887806163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68054897353364</v>
+        <v>12.68550137722151</v>
       </c>
       <c r="C4">
-        <v>7.478945268951098</v>
+        <v>8.31250641353359</v>
       </c>
       <c r="D4">
-        <v>5.13246038191242</v>
+        <v>5.203073474875555</v>
       </c>
       <c r="E4">
-        <v>8.1765561559447</v>
+        <v>8.074587068560151</v>
       </c>
       <c r="F4">
-        <v>21.25731269055827</v>
+        <v>16.7654540779596</v>
       </c>
       <c r="G4">
-        <v>2.118330329228823</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>20.62401023394477</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.166217787181537</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.95269207323814</v>
       </c>
       <c r="K4">
-        <v>10.38936022235855</v>
+        <v>14.86204897094637</v>
       </c>
       <c r="L4">
-        <v>6.422507290311312</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.97243975651663</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.452303575747057</v>
       </c>
       <c r="O4">
-        <v>17.97416278697817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.23741239855365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.4147991475836</v>
+        <v>12.4308377534603</v>
       </c>
       <c r="C5">
-        <v>7.48832556091443</v>
+        <v>8.29218662702775</v>
       </c>
       <c r="D5">
-        <v>5.10706248971739</v>
+        <v>5.147327547539255</v>
       </c>
       <c r="E5">
-        <v>8.149524423827598</v>
+        <v>8.046164491986183</v>
       </c>
       <c r="F5">
-        <v>21.19830632869471</v>
+        <v>16.72937425085906</v>
       </c>
       <c r="G5">
-        <v>2.119703733458045</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>20.60572301306607</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.211857505213812</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.971776741398592</v>
       </c>
       <c r="K5">
-        <v>10.21606041587272</v>
+        <v>14.90033350226141</v>
       </c>
       <c r="L5">
-        <v>6.372233043310843</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.81066445776204</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.400204642266967</v>
       </c>
       <c r="O5">
-        <v>17.98214643675044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.2581336313373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.3701357304629</v>
+        <v>12.38508386827172</v>
       </c>
       <c r="C6">
-        <v>7.489901044076724</v>
+        <v>8.292550101140508</v>
       </c>
       <c r="D6">
-        <v>5.102826293440746</v>
+        <v>5.13980816072507</v>
       </c>
       <c r="E6">
-        <v>8.145105283359632</v>
+        <v>8.038428984498532</v>
       </c>
       <c r="F6">
-        <v>21.18876413822671</v>
+        <v>16.7155557676363</v>
       </c>
       <c r="G6">
-        <v>2.119933354184175</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>20.58931054688297</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.223075063420507</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.972886737367235</v>
       </c>
       <c r="K6">
-        <v>10.18698635121985</v>
+        <v>14.90117641614347</v>
       </c>
       <c r="L6">
-        <v>6.363896585719023</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.78556993712905</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.392521639512807</v>
       </c>
       <c r="O6">
-        <v>17.98367927108239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.25629643146167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.67700086621868</v>
+        <v>12.67426894406236</v>
       </c>
       <c r="C7">
-        <v>7.479070574971877</v>
+        <v>8.322461162088709</v>
       </c>
       <c r="D7">
-        <v>5.132119134765339</v>
+        <v>5.207209644929512</v>
       </c>
       <c r="E7">
-        <v>8.176186941469506</v>
+        <v>8.06590052409895</v>
       </c>
       <c r="F7">
-        <v>21.25649971875493</v>
+        <v>16.74325178903061</v>
       </c>
       <c r="G7">
-        <v>2.118348746681718</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>20.58667638389036</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.176285964770223</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.947196007742797</v>
       </c>
       <c r="K7">
-        <v>10.38704304702867</v>
+        <v>14.84727549121772</v>
       </c>
       <c r="L7">
-        <v>6.421828545611544</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.97571857761423</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.4541922228545</v>
       </c>
       <c r="O7">
-        <v>17.974256483759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.22298395165001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.95363007995345</v>
+        <v>13.88114857847846</v>
       </c>
       <c r="C8">
-        <v>7.433883318873051</v>
+        <v>8.445035781128567</v>
       </c>
       <c r="D8">
-        <v>5.258519023877896</v>
+        <v>5.489667091215064</v>
       </c>
       <c r="E8">
-        <v>8.323415525421773</v>
+        <v>8.200275556341891</v>
       </c>
       <c r="F8">
-        <v>21.59302454993678</v>
+        <v>16.90803700909178</v>
       </c>
       <c r="G8">
-        <v>2.111580146980738</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>20.64357381064014</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.970481663875402</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.846470597736298</v>
       </c>
       <c r="K8">
-        <v>11.22613992692797</v>
+        <v>14.63570435733591</v>
       </c>
       <c r="L8">
-        <v>6.678666360608377</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.77188917830907</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.724340745666568</v>
       </c>
       <c r="O8">
-        <v>17.96371984954969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.10592287132639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.18239899512616</v>
+        <v>15.98517882771936</v>
       </c>
       <c r="C9">
-        <v>7.354690669124811</v>
+        <v>8.668540197774993</v>
       </c>
       <c r="D9">
-        <v>5.495067261042622</v>
+        <v>5.995969980264191</v>
       </c>
       <c r="E9">
-        <v>8.647890018598375</v>
+        <v>8.495310530611071</v>
       </c>
       <c r="F9">
-        <v>22.39143724764345</v>
+        <v>17.34905412847195</v>
       </c>
       <c r="G9">
-        <v>2.099070896561901</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>20.94740546639707</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.586207286617868</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.68618252650292</v>
       </c>
       <c r="K9">
-        <v>12.7117796261952</v>
+        <v>14.29255348757952</v>
       </c>
       <c r="L9">
-        <v>7.182367394220078</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.18333173719574</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.246579383030332</v>
       </c>
       <c r="O9">
-        <v>18.06353778186695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.96406266694575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.65610026976566</v>
+        <v>17.36179240443342</v>
       </c>
       <c r="C10">
-        <v>7.302318687300846</v>
+        <v>8.839655648623232</v>
       </c>
       <c r="D10">
-        <v>5.661131128665975</v>
+        <v>6.344437847577241</v>
       </c>
       <c r="E10">
-        <v>8.907514984276478</v>
+        <v>8.717119998320658</v>
       </c>
       <c r="F10">
-        <v>23.06444271855214</v>
+        <v>17.71256589985099</v>
       </c>
       <c r="G10">
-        <v>2.090304774692814</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>21.23686166376735</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.634895166247498</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.583362621483447</v>
       </c>
       <c r="K10">
-        <v>13.7047302441722</v>
+        <v>14.06227495280551</v>
       </c>
       <c r="L10">
-        <v>7.549114699783671</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.13338515191631</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.625453204934511</v>
       </c>
       <c r="O10">
-        <v>18.21836746600539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.8942761848738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.2917852768942</v>
+        <v>17.94318731542939</v>
       </c>
       <c r="C11">
-        <v>7.279774668551505</v>
+        <v>8.935521350911706</v>
       </c>
       <c r="D11">
-        <v>5.734845919203637</v>
+        <v>6.503839553967052</v>
       </c>
       <c r="E11">
-        <v>9.030090877853102</v>
+        <v>8.807326546250025</v>
       </c>
       <c r="F11">
-        <v>23.3896140941884</v>
+        <v>17.85634916817454</v>
       </c>
       <c r="G11">
-        <v>2.086399271832251</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>21.33116715557911</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.756062828793955</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.531416925353307</v>
       </c>
       <c r="K11">
-        <v>14.13503841704589</v>
+        <v>13.93925256229027</v>
       </c>
       <c r="L11">
-        <v>7.714643297593385</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.55281920557698</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.799225814406278</v>
       </c>
       <c r="O11">
-        <v>18.30818151749076</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.84880740871162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.52758017089817</v>
+        <v>18.16337844193389</v>
       </c>
       <c r="C12">
-        <v>7.27142398432721</v>
+        <v>8.962590367724422</v>
       </c>
       <c r="D12">
-        <v>5.762485324097526</v>
+        <v>6.559668495669124</v>
       </c>
       <c r="E12">
-        <v>9.077137060772554</v>
+        <v>8.848351876544291</v>
       </c>
       <c r="F12">
-        <v>23.51549213317898</v>
+        <v>17.92991368441225</v>
       </c>
       <c r="G12">
-        <v>2.084931333333746</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>21.40038786007214</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.798377062890935</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.517344589920055</v>
       </c>
       <c r="K12">
-        <v>14.29491845027017</v>
+        <v>13.90711291140671</v>
       </c>
       <c r="L12">
-        <v>7.777095507147594</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.70488311502701</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.862804492779636</v>
       </c>
       <c r="O12">
-        <v>18.34511317777562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.84574796033175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.47701549837334</v>
+        <v>18.11718086210762</v>
       </c>
       <c r="C13">
-        <v>7.273214132914404</v>
+        <v>8.954875069677962</v>
       </c>
       <c r="D13">
-        <v>5.756545081825124</v>
+        <v>6.546958029655599</v>
       </c>
       <c r="E13">
-        <v>9.066977043075928</v>
+        <v>8.840830704232472</v>
       </c>
       <c r="F13">
-        <v>23.48825996940239</v>
+        <v>17.91748771919715</v>
       </c>
       <c r="G13">
-        <v>2.085247005264063</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>21.39144666973164</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.788575573526895</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.521346471982213</v>
       </c>
       <c r="K13">
-        <v>14.26062169021628</v>
+        <v>13.91668351210749</v>
       </c>
       <c r="L13">
-        <v>7.763656130313704</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.67149768986783</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.84875752439413</v>
       </c>
       <c r="O13">
-        <v>18.33702726456611</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13.84887490988928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.31128258799921</v>
+        <v>17.96183194653461</v>
       </c>
       <c r="C14">
-        <v>7.279083906738841</v>
+        <v>8.936946404741779</v>
       </c>
       <c r="D14">
-        <v>5.737125400751381</v>
+        <v>6.508140335377812</v>
       </c>
       <c r="E14">
-        <v>9.033948858347012</v>
+        <v>8.811261631710247</v>
       </c>
       <c r="F14">
-        <v>23.39991515431533</v>
+        <v>17.86385610892722</v>
       </c>
       <c r="G14">
-        <v>2.086278288370626</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>21.33940033087986</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.759241352402563</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.530670995316321</v>
       </c>
       <c r="K14">
-        <v>14.14825326786213</v>
+        <v>13.93773155449506</v>
       </c>
       <c r="L14">
-        <v>7.719786103177229</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.5650607672492</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.804305389088356</v>
       </c>
       <c r="O14">
-        <v>18.3111606073861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.84960308771695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.20912697985408</v>
+        <v>17.86401762411311</v>
       </c>
       <c r="C15">
-        <v>7.282703636184136</v>
+        <v>8.929692555766382</v>
       </c>
       <c r="D15">
-        <v>5.725194167241885</v>
+        <v>6.485693200107399</v>
       </c>
       <c r="E15">
-        <v>9.013799707365704</v>
+        <v>8.790554008145067</v>
       </c>
       <c r="F15">
-        <v>23.34615876381295</v>
+        <v>17.82429956519107</v>
       </c>
       <c r="G15">
-        <v>2.086911384579327</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>21.2958331638025</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.742751062510705</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.534497793247445</v>
       </c>
       <c r="K15">
-        <v>14.07902512862489</v>
+        <v>13.9454635204111</v>
       </c>
       <c r="L15">
-        <v>7.692883371528982</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.50101300929809</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.777768976219426</v>
       </c>
       <c r="O15">
-        <v>18.29570086968744</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13.84524915424001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.61386390706393</v>
+        <v>17.30586863380235</v>
       </c>
       <c r="C16">
-        <v>7.303817930937565</v>
+        <v>8.864556718703403</v>
       </c>
       <c r="D16">
-        <v>5.656275861443045</v>
+        <v>6.346221144703601</v>
       </c>
       <c r="E16">
-        <v>8.899593160476806</v>
+        <v>8.688961690013512</v>
       </c>
       <c r="F16">
-        <v>23.04357545521139</v>
+        <v>17.6446450522728</v>
       </c>
       <c r="G16">
-        <v>2.090561593288844</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>21.12866903831932</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.638597099322783</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.570254609434201</v>
       </c>
       <c r="K16">
-        <v>13.67617864048943</v>
+        <v>14.02580151247179</v>
       </c>
       <c r="L16">
-        <v>7.538266988596387</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.11863259305628</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.620375304307915</v>
       </c>
       <c r="O16">
-        <v>18.21289942426296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.85523457400718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.23984566374937</v>
+        <v>16.95434512151163</v>
       </c>
       <c r="C17">
-        <v>7.317100208475269</v>
+        <v>8.824602286689199</v>
       </c>
       <c r="D17">
-        <v>5.613519609301862</v>
+        <v>6.259131103573947</v>
       </c>
       <c r="E17">
-        <v>8.83066653099536</v>
+        <v>8.627094143359979</v>
       </c>
       <c r="F17">
-        <v>22.86282822816091</v>
+        <v>17.53738925973484</v>
       </c>
       <c r="G17">
-        <v>2.092821366043569</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>21.03150507569989</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.574387482514314</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.593353088493233</v>
       </c>
       <c r="K17">
-        <v>13.42356977599204</v>
+        <v>14.07712768776659</v>
       </c>
       <c r="L17">
-        <v>7.443048288277176</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.87895043547975</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.52326154211088</v>
       </c>
       <c r="O17">
-        <v>18.16716361973221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.86415407097962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.02144920948224</v>
+        <v>16.75416735803514</v>
       </c>
       <c r="C18">
-        <v>7.324860181505312</v>
+        <v>8.792084764090255</v>
       </c>
       <c r="D18">
-        <v>5.588755876314512</v>
+        <v>6.204681023462008</v>
       </c>
       <c r="E18">
-        <v>8.791443419770676</v>
+        <v>8.598511862889195</v>
       </c>
       <c r="F18">
-        <v>22.76065710577751</v>
+        <v>17.49476521230869</v>
       </c>
       <c r="G18">
-        <v>2.09412892256552</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>21.00883731459222</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.532589222011237</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.612072216741256</v>
       </c>
       <c r="K18">
-        <v>13.27626153814676</v>
+        <v>14.12083315255594</v>
       </c>
       <c r="L18">
-        <v>7.388160137610053</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.73517376636136</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.465257107687806</v>
       </c>
       <c r="O18">
-        <v>18.1426739994266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.88307684198447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.94694014399181</v>
+        <v>16.6816787961733</v>
       </c>
       <c r="C19">
-        <v>7.327508185973835</v>
+        <v>8.788419879035365</v>
       </c>
       <c r="D19">
-        <v>5.580342231288561</v>
+        <v>6.189078957601338</v>
       </c>
       <c r="E19">
-        <v>8.778235990209117</v>
+        <v>8.583605324370829</v>
       </c>
       <c r="F19">
-        <v>22.7263708314737</v>
+        <v>17.46666435530611</v>
       </c>
       <c r="G19">
-        <v>2.094573002143671</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>20.9773942136514</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.52197452266404</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.614611287046838</v>
       </c>
       <c r="K19">
-        <v>13.22603943791482</v>
+        <v>14.12537202281982</v>
       </c>
       <c r="L19">
-        <v>7.369556577346216</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.68929268081604</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.447095816025559</v>
       </c>
       <c r="O19">
-        <v>18.13469007689657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.87978588761072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.27999861539835</v>
+        <v>16.99252952348493</v>
       </c>
       <c r="C20">
-        <v>7.315673816103622</v>
+        <v>8.828106014627442</v>
       </c>
       <c r="D20">
-        <v>5.618088920934007</v>
+        <v>6.26816332256213</v>
       </c>
       <c r="E20">
-        <v>8.83796034788935</v>
+        <v>8.634195266913935</v>
       </c>
       <c r="F20">
-        <v>22.88188376206953</v>
+        <v>17.55009919140332</v>
       </c>
       <c r="G20">
-        <v>2.092580008509887</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>21.04409095735314</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.580859825930335</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.591244433326802</v>
       </c>
       <c r="K20">
-        <v>13.45066886270024</v>
+        <v>14.07264429004924</v>
       </c>
       <c r="L20">
-        <v>7.453197315933702</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.90434338051946</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.533466892942191</v>
       </c>
       <c r="O20">
-        <v>18.17184330394639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.86410367558447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.36009549384448</v>
+        <v>18.00197713194831</v>
       </c>
       <c r="C21">
-        <v>7.277354738643951</v>
+        <v>8.952802767175296</v>
       </c>
       <c r="D21">
-        <v>5.742836978399531</v>
+        <v>6.523644232875597</v>
       </c>
       <c r="E21">
-        <v>9.043633061933747</v>
+        <v>8.81250809712218</v>
       </c>
       <c r="F21">
-        <v>23.42578968452432</v>
+        <v>17.85997565342629</v>
       </c>
       <c r="G21">
-        <v>2.085975084185703</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>21.32036982899464</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.772152414507155</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.522310302965737</v>
       </c>
       <c r="K21">
-        <v>14.18134177393962</v>
+        <v>13.91641196469718</v>
       </c>
       <c r="L21">
-        <v>7.732678335105159</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.60070196044889</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.819454393899046</v>
       </c>
       <c r="O21">
-        <v>18.31867794077993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.83511808565104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.0373255319528</v>
+        <v>18.63914912164177</v>
       </c>
       <c r="C22">
-        <v>7.253397802150069</v>
+        <v>9.020880176280297</v>
       </c>
       <c r="D22">
-        <v>5.822760667130723</v>
+        <v>6.680370838921515</v>
       </c>
       <c r="E22">
-        <v>9.181714665099113</v>
+        <v>8.93985878607851</v>
       </c>
       <c r="F22">
-        <v>23.79725216833782</v>
+        <v>18.09699740196961</v>
       </c>
       <c r="G22">
-        <v>2.081722017043058</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>21.56228594743949</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.890522904402953</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.488306673450859</v>
       </c>
       <c r="K22">
-        <v>14.64100278517046</v>
+        <v>13.84042377601966</v>
       </c>
       <c r="L22">
-        <v>7.913980529511955</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.03356171287878</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.001699508441698</v>
       </c>
       <c r="O22">
-        <v>18.43172915841595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.84371038689085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.67847656892831</v>
+        <v>18.30849671634642</v>
       </c>
       <c r="C23">
-        <v>7.266083841676942</v>
+        <v>8.971823178967707</v>
       </c>
       <c r="D23">
-        <v>5.780254502240457</v>
+        <v>6.592306980953498</v>
       </c>
       <c r="E23">
-        <v>9.1076870985928</v>
+        <v>8.880696508406453</v>
       </c>
       <c r="F23">
-        <v>23.59753077429066</v>
+        <v>17.99313575667528</v>
       </c>
       <c r="G23">
-        <v>2.083986427897422</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>21.47264736167427</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.82278943901075</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.512842616472298</v>
       </c>
       <c r="K23">
-        <v>14.39730431814576</v>
+        <v>13.89856388710042</v>
       </c>
       <c r="L23">
-        <v>7.817352303094823</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.79893785731645</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.902141484224893</v>
       </c>
       <c r="O23">
-        <v>18.36978460358354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.85537300662048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.26185596268171</v>
+        <v>16.98651499962069</v>
       </c>
       <c r="C24">
-        <v>7.316318302598441</v>
+        <v>8.806450073873043</v>
       </c>
       <c r="D24">
-        <v>5.616023702973512</v>
+        <v>6.256093060190763</v>
       </c>
       <c r="E24">
-        <v>8.834661554709831</v>
+        <v>8.645370680434958</v>
       </c>
       <c r="F24">
-        <v>22.87326332716709</v>
+        <v>17.58224988224019</v>
       </c>
       <c r="G24">
-        <v>2.092689100076608</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>21.10437540693021</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.569153500930871</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.602820271797651</v>
       </c>
       <c r="K24">
-        <v>13.43842384493474</v>
+        <v>14.10320971267315</v>
       </c>
       <c r="L24">
-        <v>7.448609390939629</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.88437476637578</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.524743272855165</v>
       </c>
       <c r="O24">
-        <v>18.16972200827299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.89119655949052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.6084904614527</v>
+        <v>15.43346550171441</v>
       </c>
       <c r="C25">
-        <v>7.375099739804527</v>
+        <v>8.627014864343598</v>
       </c>
       <c r="D25">
-        <v>5.432375954454964</v>
+        <v>5.871516587397973</v>
       </c>
       <c r="E25">
-        <v>8.556334821586677</v>
+        <v>8.399461799079564</v>
       </c>
       <c r="F25">
-        <v>22.16037476251996</v>
+        <v>17.18330226838864</v>
       </c>
       <c r="G25">
-        <v>2.10237731702354</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>20.78554630699825</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.704421185609501</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.716187102593603</v>
       </c>
       <c r="K25">
-        <v>12.3271447363777</v>
+        <v>14.35271096259449</v>
       </c>
       <c r="L25">
-        <v>7.046464743688047</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.82572324315231</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.110294594483105</v>
       </c>
       <c r="O25">
-        <v>18.02279870296875</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.96900585800611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.19951985012767</v>
+        <v>14.16362014469615</v>
       </c>
       <c r="C2">
-        <v>8.463681615820214</v>
+        <v>8.211881742731133</v>
       </c>
       <c r="D2">
-        <v>5.557013241623533</v>
+        <v>5.594802699802951</v>
       </c>
       <c r="E2">
-        <v>8.249353775907236</v>
+        <v>8.014698730830592</v>
       </c>
       <c r="F2">
-        <v>16.98811129452024</v>
+        <v>16.53810280653283</v>
       </c>
       <c r="G2">
-        <v>20.71902963001365</v>
+        <v>19.32420230363677</v>
       </c>
       <c r="I2">
-        <v>2.904229945959554</v>
+        <v>2.794013139322486</v>
       </c>
       <c r="J2">
-        <v>8.829037892363385</v>
+        <v>9.064674373327394</v>
       </c>
       <c r="K2">
-        <v>14.6028701647539</v>
+        <v>14.10708018028964</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.85702226078719</v>
       </c>
       <c r="M2">
-        <v>11.97101726361607</v>
+        <v>8.989397246691764</v>
       </c>
       <c r="N2">
-        <v>6.794016127830991</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.05296619550194</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.850810573351007</v>
       </c>
       <c r="Q2">
-        <v>14.09888972239999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.73769197106159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.28302717167525</v>
+        <v>13.27429832624775</v>
       </c>
       <c r="C3">
-        <v>8.369901673680015</v>
+        <v>8.045762856104949</v>
       </c>
       <c r="D3">
-        <v>5.340662625825762</v>
+        <v>5.358206949383715</v>
       </c>
       <c r="E3">
-        <v>8.139665716796138</v>
+        <v>7.91746192081082</v>
       </c>
       <c r="F3">
-        <v>16.84402295922628</v>
+        <v>16.4312623753021</v>
       </c>
       <c r="G3">
-        <v>20.65070178922241</v>
+        <v>19.35240283305927</v>
       </c>
       <c r="I3">
-        <v>3.063798492767938</v>
+        <v>2.935634520678498</v>
       </c>
       <c r="J3">
-        <v>8.903613662438385</v>
+        <v>9.11120303932945</v>
       </c>
       <c r="K3">
-        <v>14.76011163794604</v>
+        <v>14.2789200567871</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.03618451636464</v>
       </c>
       <c r="M3">
-        <v>11.36304503209247</v>
+        <v>9.099063777409921</v>
       </c>
       <c r="N3">
-        <v>6.582286968741931</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.43342940535017</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.634074168871875</v>
       </c>
       <c r="Q3">
-        <v>14.18014887806163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.83934834532365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68550137722151</v>
+        <v>12.69470867403275</v>
       </c>
       <c r="C4">
-        <v>8.31250641353359</v>
+        <v>7.943910451234413</v>
       </c>
       <c r="D4">
-        <v>5.203073474875555</v>
+        <v>5.207619780203991</v>
       </c>
       <c r="E4">
-        <v>8.074587068560151</v>
+        <v>7.859509239268181</v>
       </c>
       <c r="F4">
-        <v>16.7654540779596</v>
+        <v>16.3740794032012</v>
       </c>
       <c r="G4">
-        <v>20.62401023394477</v>
+        <v>19.38605665286659</v>
       </c>
       <c r="I4">
-        <v>3.166217787181537</v>
+        <v>3.026874186272833</v>
       </c>
       <c r="J4">
-        <v>8.95269207323814</v>
+        <v>9.141330896290491</v>
       </c>
       <c r="K4">
-        <v>14.86204897094637</v>
+        <v>14.38843396209921</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.14931431763403</v>
       </c>
       <c r="M4">
-        <v>10.97243975651663</v>
+        <v>9.185484742299476</v>
       </c>
       <c r="N4">
-        <v>6.452303575747057</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.03549789731069</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.500964840959722</v>
       </c>
       <c r="Q4">
-        <v>14.23741239855365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.9078011952847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.4308377534603</v>
+        <v>12.44772994016256</v>
       </c>
       <c r="C5">
-        <v>8.29218662702775</v>
+        <v>7.906161291168853</v>
       </c>
       <c r="D5">
-        <v>5.147327547539255</v>
+        <v>5.146454653612309</v>
       </c>
       <c r="E5">
-        <v>8.046164491986183</v>
+        <v>7.833887471672615</v>
       </c>
       <c r="F5">
-        <v>16.72937425085906</v>
+        <v>16.3464392572491</v>
       </c>
       <c r="G5">
-        <v>20.60572301306607</v>
+        <v>19.39265674262874</v>
       </c>
       <c r="I5">
-        <v>3.211857505213812</v>
+        <v>3.068402058972631</v>
       </c>
       <c r="J5">
-        <v>8.971776741398592</v>
+        <v>9.152287619892117</v>
       </c>
       <c r="K5">
-        <v>14.90033350226141</v>
+        <v>14.42966365807451</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.1918375588965</v>
       </c>
       <c r="M5">
-        <v>10.81066445776204</v>
+        <v>9.223200561739603</v>
       </c>
       <c r="N5">
-        <v>6.400204642266967</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.87068029884683</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.447571394479476</v>
       </c>
       <c r="Q5">
-        <v>14.2581336313373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.93287042521081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.38508386827172</v>
+        <v>12.40332804090924</v>
       </c>
       <c r="C6">
-        <v>8.292550101140508</v>
+        <v>7.90445851866625</v>
       </c>
       <c r="D6">
-        <v>5.13980816072507</v>
+        <v>5.138041540142043</v>
       </c>
       <c r="E6">
-        <v>8.038428984498532</v>
+        <v>7.826649416801276</v>
       </c>
       <c r="F6">
-        <v>16.7155557676363</v>
+        <v>16.33413495911685</v>
       </c>
       <c r="G6">
-        <v>20.58931054688297</v>
+        <v>19.38050629807928</v>
       </c>
       <c r="I6">
-        <v>3.223075063420507</v>
+        <v>3.079575629913907</v>
       </c>
       <c r="J6">
-        <v>8.972886737367235</v>
+        <v>9.152043391016791</v>
       </c>
       <c r="K6">
-        <v>14.90117641614347</v>
+        <v>14.43121320094193</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.19362009737526</v>
       </c>
       <c r="M6">
-        <v>10.78556993712905</v>
+        <v>9.227072993660851</v>
       </c>
       <c r="N6">
-        <v>6.392521639512807</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.84506356343252</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.439656636745866</v>
       </c>
       <c r="Q6">
-        <v>14.25629643146167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.93187696158296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.67426894406236</v>
+        <v>12.6844174078467</v>
       </c>
       <c r="C7">
-        <v>8.322461162088709</v>
+        <v>7.953575638666941</v>
       </c>
       <c r="D7">
-        <v>5.207209644929512</v>
+        <v>5.214730174908854</v>
       </c>
       <c r="E7">
-        <v>8.06590052409895</v>
+        <v>7.851781010466374</v>
       </c>
       <c r="F7">
-        <v>16.74325178903061</v>
+        <v>16.33999560645218</v>
       </c>
       <c r="G7">
-        <v>20.58667638389036</v>
+        <v>19.41745850755982</v>
       </c>
       <c r="I7">
-        <v>3.176285964770223</v>
+        <v>3.03905155462328</v>
       </c>
       <c r="J7">
-        <v>8.947196007742797</v>
+        <v>9.106932523280237</v>
       </c>
       <c r="K7">
-        <v>14.84727549121772</v>
+        <v>14.36896401741927</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.13047585013644</v>
       </c>
       <c r="M7">
-        <v>10.97571857761423</v>
+        <v>9.175351271876767</v>
       </c>
       <c r="N7">
-        <v>6.4541922228545</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.03756419171326</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.502533225812225</v>
       </c>
       <c r="Q7">
-        <v>14.22298395165001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.8856594035541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.88114857847846</v>
+        <v>13.85668288406185</v>
       </c>
       <c r="C8">
-        <v>8.445035781128567</v>
+        <v>8.163862109569774</v>
       </c>
       <c r="D8">
-        <v>5.489667091215064</v>
+        <v>5.530271417437136</v>
       </c>
       <c r="E8">
-        <v>8.200275556341891</v>
+        <v>7.972888972282489</v>
       </c>
       <c r="F8">
-        <v>16.90803700909178</v>
+        <v>16.43117234713961</v>
       </c>
       <c r="G8">
-        <v>20.64357381064014</v>
+        <v>19.50984349042296</v>
       </c>
       <c r="I8">
-        <v>2.970481663875402</v>
+        <v>2.857742307232007</v>
       </c>
       <c r="J8">
-        <v>8.846470597736298</v>
+        <v>8.979030350479617</v>
       </c>
       <c r="K8">
-        <v>14.63570435733591</v>
+        <v>14.12854833011861</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.88550053258587</v>
       </c>
       <c r="M8">
-        <v>11.77188917830907</v>
+        <v>8.999605259122053</v>
       </c>
       <c r="N8">
-        <v>6.724340745666568</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.84638297282403</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.778507115885146</v>
       </c>
       <c r="Q8">
-        <v>14.10592287132639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.72561263940512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.98517882771936</v>
+        <v>15.89942670567969</v>
       </c>
       <c r="C9">
-        <v>8.668540197774993</v>
+        <v>8.562150923899962</v>
       </c>
       <c r="D9">
-        <v>5.995969980264191</v>
+        <v>6.085434582437842</v>
       </c>
       <c r="E9">
-        <v>8.495310530611071</v>
+        <v>8.234810820547624</v>
       </c>
       <c r="F9">
-        <v>17.34905412847195</v>
+        <v>16.76139770584101</v>
       </c>
       <c r="G9">
-        <v>20.94740546639707</v>
+        <v>19.642581595899</v>
       </c>
       <c r="I9">
-        <v>2.586207286617868</v>
+        <v>2.515852884495188</v>
       </c>
       <c r="J9">
-        <v>8.68618252650292</v>
+        <v>8.852256917278943</v>
       </c>
       <c r="K9">
-        <v>14.29255348757952</v>
+        <v>13.7350875035597</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.47092298256901</v>
       </c>
       <c r="M9">
-        <v>13.18333173719574</v>
+        <v>8.838907518798703</v>
       </c>
       <c r="N9">
-        <v>7.246579383030332</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.28460189633212</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.312560982633534</v>
       </c>
       <c r="Q9">
-        <v>13.96406266694575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.51719690562416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.36179240443342</v>
+        <v>17.23926533192545</v>
       </c>
       <c r="C10">
-        <v>8.839655648623232</v>
+        <v>8.848068119441455</v>
       </c>
       <c r="D10">
-        <v>6.344437847577241</v>
+        <v>6.481649188177665</v>
       </c>
       <c r="E10">
-        <v>8.717119998320658</v>
+        <v>8.435074287137031</v>
       </c>
       <c r="F10">
-        <v>17.71256589985099</v>
+        <v>16.97014447225961</v>
       </c>
       <c r="G10">
-        <v>21.23686166376735</v>
+        <v>20.2164607472388</v>
       </c>
       <c r="I10">
-        <v>2.634895166247498</v>
+        <v>2.681328042500412</v>
       </c>
       <c r="J10">
-        <v>8.583362621483447</v>
+        <v>8.607764792786773</v>
       </c>
       <c r="K10">
-        <v>14.06227495280551</v>
+        <v>13.42927189107262</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.15514574063003</v>
       </c>
       <c r="M10">
-        <v>14.13338515191631</v>
+        <v>8.788667332175217</v>
       </c>
       <c r="N10">
-        <v>7.625453204934511</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.24747094147959</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.69795820250866</v>
       </c>
       <c r="Q10">
-        <v>13.8942761848738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.34411832427962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.94318731542939</v>
+        <v>17.81045762787531</v>
       </c>
       <c r="C11">
-        <v>8.935521350911706</v>
+        <v>8.977506861088342</v>
       </c>
       <c r="D11">
-        <v>6.503839553967052</v>
+        <v>6.688161033702787</v>
       </c>
       <c r="E11">
-        <v>8.807326546250025</v>
+        <v>8.52381759199837</v>
       </c>
       <c r="F11">
-        <v>17.85634916817454</v>
+        <v>16.92433351135901</v>
       </c>
       <c r="G11">
-        <v>21.33116715557911</v>
+        <v>21.15873382827851</v>
       </c>
       <c r="I11">
-        <v>2.756062828793955</v>
+        <v>2.788212412593949</v>
       </c>
       <c r="J11">
-        <v>8.531416925353307</v>
+        <v>8.250181453765006</v>
       </c>
       <c r="K11">
-        <v>13.93925256229027</v>
+        <v>13.21774651483371</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.96635083744141</v>
       </c>
       <c r="M11">
-        <v>14.55281920557698</v>
+        <v>8.717200636747455</v>
       </c>
       <c r="N11">
-        <v>7.799225814406278</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.6639071320265</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.871847047655878</v>
       </c>
       <c r="Q11">
-        <v>13.84880740871162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.16729637116881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.16337844193389</v>
+        <v>18.02746787230329</v>
       </c>
       <c r="C12">
-        <v>8.962590367724422</v>
+        <v>9.012531392212072</v>
       </c>
       <c r="D12">
-        <v>6.559668495669124</v>
+        <v>6.764807476695253</v>
       </c>
       <c r="E12">
-        <v>8.848351876544291</v>
+        <v>8.565200795978019</v>
       </c>
       <c r="F12">
-        <v>17.92991368441225</v>
+        <v>16.91057371170653</v>
       </c>
       <c r="G12">
-        <v>21.40038786007214</v>
+        <v>21.64451803236568</v>
       </c>
       <c r="I12">
-        <v>2.798377062890935</v>
+        <v>2.823919431496869</v>
       </c>
       <c r="J12">
-        <v>8.517344589920055</v>
+        <v>8.104507423713706</v>
       </c>
       <c r="K12">
-        <v>13.90711291140671</v>
+        <v>13.14344785893333</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.90003549002521</v>
       </c>
       <c r="M12">
-        <v>14.70488311502701</v>
+        <v>8.696724999512224</v>
       </c>
       <c r="N12">
-        <v>7.862804492779636</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.81390192668397</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.935141415562681</v>
       </c>
       <c r="Q12">
-        <v>13.84574796033175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.10268317621069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.11718086210762</v>
+        <v>17.98190153665227</v>
       </c>
       <c r="C13">
-        <v>8.954875069677962</v>
+        <v>9.002807632507638</v>
       </c>
       <c r="D13">
-        <v>6.546958029655599</v>
+        <v>6.747471834347163</v>
       </c>
       <c r="E13">
-        <v>8.840830704232472</v>
+        <v>8.557521652187292</v>
       </c>
       <c r="F13">
-        <v>17.91748771919715</v>
+        <v>16.91751280267205</v>
       </c>
       <c r="G13">
-        <v>21.39144666973164</v>
+        <v>21.54161925503097</v>
       </c>
       <c r="I13">
-        <v>2.788575573526895</v>
+        <v>2.815335906585295</v>
       </c>
       <c r="J13">
-        <v>8.521346471982213</v>
+        <v>8.136810743468851</v>
       </c>
       <c r="K13">
-        <v>13.91668351210749</v>
+        <v>13.16212713419784</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.91597080519524</v>
       </c>
       <c r="M13">
-        <v>14.67149768986783</v>
+        <v>8.703496590057954</v>
       </c>
       <c r="N13">
-        <v>7.84875752439413</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.78100688914412</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.921178644393794</v>
       </c>
       <c r="Q13">
-        <v>13.84887490988928</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.11940328502174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.96183194653461</v>
+        <v>17.82881681097058</v>
       </c>
       <c r="C14">
-        <v>8.936946404741779</v>
+        <v>8.979461672265197</v>
       </c>
       <c r="D14">
-        <v>6.508140335377812</v>
+        <v>6.694111186800391</v>
       </c>
       <c r="E14">
-        <v>8.811261631710247</v>
+        <v>8.527746575210841</v>
       </c>
       <c r="F14">
-        <v>17.86385610892722</v>
+        <v>16.92491110836211</v>
       </c>
       <c r="G14">
-        <v>21.33940033087986</v>
+        <v>21.19932570227813</v>
       </c>
       <c r="I14">
-        <v>2.759241352402563</v>
+        <v>2.790759456167855</v>
       </c>
       <c r="J14">
-        <v>8.530670995316321</v>
+        <v>8.23865514181249</v>
       </c>
       <c r="K14">
-        <v>13.93773155449506</v>
+        <v>13.21278257463264</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.96161243943908</v>
       </c>
       <c r="M14">
-        <v>14.5650607672492</v>
+        <v>8.716519246491067</v>
       </c>
       <c r="N14">
-        <v>7.804305389088356</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.6759986983675</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.876913387722944</v>
       </c>
       <c r="Q14">
-        <v>13.84960308771695</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.16318595724494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.86401762411311</v>
+        <v>17.73252875546289</v>
       </c>
       <c r="C15">
-        <v>8.929692555766382</v>
+        <v>8.969381089070323</v>
       </c>
       <c r="D15">
-        <v>6.485693200107399</v>
+        <v>6.663160404502949</v>
       </c>
       <c r="E15">
-        <v>8.790554008145067</v>
+        <v>8.507118287766431</v>
       </c>
       <c r="F15">
-        <v>17.82429956519107</v>
+        <v>16.92098767793696</v>
       </c>
       <c r="G15">
-        <v>21.2958331638025</v>
+        <v>20.99046043689652</v>
       </c>
       <c r="I15">
-        <v>2.742751062510705</v>
+        <v>2.777595453515732</v>
       </c>
       <c r="J15">
-        <v>8.534497793247445</v>
+        <v>8.298342467599941</v>
       </c>
       <c r="K15">
-        <v>13.9454635204111</v>
+        <v>13.23823245728305</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.98608666667523</v>
       </c>
       <c r="M15">
-        <v>14.50101300929809</v>
+        <v>8.719711982153541</v>
       </c>
       <c r="N15">
-        <v>7.777768976219426</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.61269683317325</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.850430760290639</v>
       </c>
       <c r="Q15">
-        <v>13.84524915424001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.18404082376987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.30586863380235</v>
+        <v>17.1844342757338</v>
       </c>
       <c r="C16">
-        <v>8.864556718703403</v>
+        <v>8.87763717726636</v>
       </c>
       <c r="D16">
-        <v>6.346221144703601</v>
+        <v>6.480840202573621</v>
       </c>
       <c r="E16">
-        <v>8.688961690013512</v>
+        <v>8.407684731582513</v>
       </c>
       <c r="F16">
-        <v>17.6446450522728</v>
+        <v>16.91433104436914</v>
       </c>
       <c r="G16">
-        <v>21.12866903831932</v>
+        <v>20.06520000385184</v>
       </c>
       <c r="I16">
-        <v>2.638597099322783</v>
+        <v>2.689305283221561</v>
       </c>
       <c r="J16">
-        <v>8.570254609434201</v>
+        <v>8.614400628669133</v>
       </c>
       <c r="K16">
-        <v>14.02580151247179</v>
+        <v>13.40177029765641</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.139542404647</v>
       </c>
       <c r="M16">
-        <v>14.11863259305628</v>
+        <v>8.757654177103724</v>
       </c>
       <c r="N16">
-        <v>7.620375304307915</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.23271065775867</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.692713781084416</v>
       </c>
       <c r="Q16">
-        <v>13.85523457400718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.31445389969983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.95434512151163</v>
+        <v>16.84043914472579</v>
       </c>
       <c r="C17">
-        <v>8.824602286689199</v>
+        <v>8.816616156674383</v>
       </c>
       <c r="D17">
-        <v>6.259131103573947</v>
+        <v>6.372726293683656</v>
       </c>
       <c r="E17">
-        <v>8.627094143359979</v>
+        <v>8.348902807435223</v>
       </c>
       <c r="F17">
-        <v>17.53738925973484</v>
+        <v>16.88738348740919</v>
       </c>
       <c r="G17">
-        <v>21.03150507569989</v>
+        <v>19.66249669282837</v>
       </c>
       <c r="I17">
-        <v>2.574387482514314</v>
+        <v>2.634350742546226</v>
       </c>
       <c r="J17">
-        <v>8.593353088493233</v>
+        <v>8.765448998706729</v>
       </c>
       <c r="K17">
-        <v>14.07712768776659</v>
+        <v>13.49158984545635</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.22781870036457</v>
       </c>
       <c r="M17">
-        <v>13.87895043547975</v>
+        <v>8.775295010165213</v>
       </c>
       <c r="N17">
-        <v>7.52326154211088</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.99272019836204</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.594787609159172</v>
       </c>
       <c r="Q17">
-        <v>13.86415407097962</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.37840965015578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.75416735803514</v>
+        <v>16.64498782689551</v>
       </c>
       <c r="C18">
-        <v>8.792084764090255</v>
+        <v>8.767987318704353</v>
       </c>
       <c r="D18">
-        <v>6.204681023462008</v>
+        <v>6.308075505050792</v>
       </c>
       <c r="E18">
-        <v>8.598511862889195</v>
+        <v>8.322539088307373</v>
       </c>
       <c r="F18">
-        <v>17.49476521230869</v>
+        <v>16.88126602981874</v>
       </c>
       <c r="G18">
-        <v>21.00883731459222</v>
+        <v>19.51905156450627</v>
       </c>
       <c r="I18">
-        <v>2.532589222011237</v>
+        <v>2.596476327814094</v>
       </c>
       <c r="J18">
-        <v>8.612072216741256</v>
+        <v>8.837950429567522</v>
       </c>
       <c r="K18">
-        <v>14.12083315255594</v>
+        <v>13.55191649744847</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.28506844153844</v>
       </c>
       <c r="M18">
-        <v>13.73517376636136</v>
+        <v>8.794106921450629</v>
       </c>
       <c r="N18">
-        <v>7.465257107687806</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.84811641802802</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.536133290265229</v>
       </c>
       <c r="Q18">
-        <v>13.88307684198447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.42177188181128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.6816787961733</v>
+        <v>16.57426055901249</v>
       </c>
       <c r="C19">
-        <v>8.788419879035365</v>
+        <v>8.760294584319423</v>
       </c>
       <c r="D19">
-        <v>6.189078957601338</v>
+        <v>6.289354978755711</v>
       </c>
       <c r="E19">
-        <v>8.583605324370829</v>
+        <v>8.308608362360406</v>
       </c>
       <c r="F19">
-        <v>17.46666435530611</v>
+        <v>16.86435973561395</v>
       </c>
       <c r="G19">
-        <v>20.9773942136514</v>
+        <v>19.45597845115488</v>
       </c>
       <c r="I19">
-        <v>2.52197452266404</v>
+        <v>2.588066138666618</v>
       </c>
       <c r="J19">
-        <v>8.614611287046838</v>
+        <v>8.855560855925495</v>
       </c>
       <c r="K19">
-        <v>14.12537202281982</v>
+        <v>13.56221787782213</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.29732646705926</v>
       </c>
       <c r="M19">
-        <v>13.68929268081604</v>
+        <v>8.792215543536816</v>
       </c>
       <c r="N19">
-        <v>7.447095816025559</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.80182269461219</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.517689786748074</v>
       </c>
       <c r="Q19">
-        <v>13.87978588761072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.42612313199215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.99252952348493</v>
+        <v>16.87776311198211</v>
       </c>
       <c r="C20">
-        <v>8.828106014627442</v>
+        <v>8.822369906976665</v>
       </c>
       <c r="D20">
-        <v>6.26816332256213</v>
+        <v>6.383797345270422</v>
       </c>
       <c r="E20">
-        <v>8.634195266913935</v>
+        <v>8.355599230450398</v>
       </c>
       <c r="F20">
-        <v>17.55009919140332</v>
+        <v>16.89246283887855</v>
       </c>
       <c r="G20">
-        <v>21.04409095735314</v>
+        <v>19.70181341571771</v>
       </c>
       <c r="I20">
-        <v>2.580859825930335</v>
+        <v>2.639761779850345</v>
       </c>
       <c r="J20">
-        <v>8.591244433326802</v>
+        <v>8.75162884918171</v>
       </c>
       <c r="K20">
-        <v>14.07264429004924</v>
+        <v>13.48337698247478</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.21932654890032</v>
       </c>
       <c r="M20">
-        <v>13.90434338051946</v>
+        <v>8.774422400065781</v>
       </c>
       <c r="N20">
-        <v>7.533466892942191</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.0182166933527</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.605104674928246</v>
       </c>
       <c r="Q20">
-        <v>13.86410367558447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.37314182832268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.00197713194831</v>
+        <v>17.87033886803039</v>
       </c>
       <c r="C21">
-        <v>8.952802767175296</v>
+        <v>8.991587839607458</v>
       </c>
       <c r="D21">
-        <v>6.523644232875597</v>
+        <v>6.723209130882705</v>
       </c>
       <c r="E21">
-        <v>8.81250809712218</v>
+        <v>8.532201834835652</v>
       </c>
       <c r="F21">
-        <v>17.85997565342629</v>
+        <v>16.86172452818655</v>
       </c>
       <c r="G21">
-        <v>21.32036982899464</v>
+        <v>21.51919274644593</v>
       </c>
       <c r="I21">
-        <v>2.772152414507155</v>
+        <v>2.802425748733904</v>
       </c>
       <c r="J21">
-        <v>8.522310302965737</v>
+        <v>8.130211564483773</v>
       </c>
       <c r="K21">
-        <v>13.91641196469718</v>
+        <v>13.16542389447956</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.9272958468791</v>
       </c>
       <c r="M21">
-        <v>14.60070196044889</v>
+        <v>8.683297526672124</v>
       </c>
       <c r="N21">
-        <v>7.819454393899046</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.708256964699</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.89105467976297</v>
       </c>
       <c r="Q21">
-        <v>13.83511808565104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.10764711261233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.63914912164177</v>
+        <v>18.49766525674802</v>
       </c>
       <c r="C22">
-        <v>9.020880176280297</v>
+        <v>9.083552972192237</v>
       </c>
       <c r="D22">
-        <v>6.680370838921515</v>
+        <v>6.936742190281341</v>
       </c>
       <c r="E22">
-        <v>8.93985878607851</v>
+        <v>8.659547799228918</v>
       </c>
       <c r="F22">
-        <v>18.09699740196961</v>
+        <v>16.85769967286296</v>
       </c>
       <c r="G22">
-        <v>21.56228594743949</v>
+        <v>22.90227455262706</v>
       </c>
       <c r="I22">
-        <v>2.890522904402953</v>
+        <v>2.901122715639878</v>
       </c>
       <c r="J22">
-        <v>8.488306673450859</v>
+        <v>7.785707389312539</v>
       </c>
       <c r="K22">
-        <v>13.84042377601966</v>
+        <v>12.96987371242856</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.75034089808364</v>
       </c>
       <c r="M22">
-        <v>15.03356171287878</v>
+        <v>8.645054538116039</v>
       </c>
       <c r="N22">
-        <v>8.001699508441698</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.13641846329051</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.072740119104649</v>
       </c>
       <c r="Q22">
-        <v>13.84371038689085</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.94416332334781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.30849671634642</v>
+        <v>18.1706692614741</v>
       </c>
       <c r="C23">
-        <v>8.971823178967707</v>
+        <v>9.024437943970087</v>
       </c>
       <c r="D23">
-        <v>6.592306980953498</v>
+        <v>6.811688771567008</v>
       </c>
       <c r="E23">
-        <v>8.880696508406453</v>
+        <v>8.59795399338979</v>
       </c>
       <c r="F23">
-        <v>17.99313575667528</v>
+        <v>16.9126108599316</v>
       </c>
       <c r="G23">
-        <v>21.47264736167427</v>
+        <v>22.01376521993986</v>
       </c>
       <c r="I23">
-        <v>2.82278943901075</v>
+        <v>2.843118064873216</v>
       </c>
       <c r="J23">
-        <v>8.512842616472298</v>
+        <v>8.011859329471127</v>
       </c>
       <c r="K23">
-        <v>13.89856388710042</v>
+        <v>13.10413067441552</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.86301800414221</v>
       </c>
       <c r="M23">
-        <v>14.79893785731645</v>
+        <v>8.691876412815844</v>
       </c>
       <c r="N23">
-        <v>7.902141484224893</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.90638409978463</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.974220370169201</v>
       </c>
       <c r="Q23">
-        <v>13.85537300662048</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.06857334342564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.98651499962069</v>
+        <v>16.87192880471417</v>
       </c>
       <c r="C24">
-        <v>8.806450073873043</v>
+        <v>8.794987595153462</v>
       </c>
       <c r="D24">
-        <v>6.256093060190763</v>
+        <v>6.370765066541975</v>
       </c>
       <c r="E24">
-        <v>8.645370680434958</v>
+        <v>8.366613987296105</v>
       </c>
       <c r="F24">
-        <v>17.58224988224019</v>
+        <v>16.92701740088008</v>
       </c>
       <c r="G24">
-        <v>21.10437540693021</v>
+        <v>19.74968182888976</v>
       </c>
       <c r="I24">
-        <v>2.569153500930871</v>
+        <v>2.626183609832396</v>
       </c>
       <c r="J24">
-        <v>8.602820271797651</v>
+        <v>8.767341236448615</v>
       </c>
       <c r="K24">
-        <v>14.10320971267315</v>
+        <v>13.5131690744304</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.24136579698149</v>
       </c>
       <c r="M24">
-        <v>13.88437476637578</v>
+        <v>8.797006890236421</v>
       </c>
       <c r="N24">
-        <v>7.524743272855165</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.99824697941234</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.596402160306821</v>
       </c>
       <c r="Q24">
-        <v>13.89119655949052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.40126823528171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.43346550171441</v>
+        <v>15.36273814358467</v>
       </c>
       <c r="C25">
-        <v>8.627014864343598</v>
+        <v>8.481477443237889</v>
       </c>
       <c r="D25">
-        <v>5.871516587397973</v>
+        <v>5.944452359022398</v>
       </c>
       <c r="E25">
-        <v>8.399461799079564</v>
+        <v>8.147463139031498</v>
       </c>
       <c r="F25">
-        <v>17.18330226838864</v>
+        <v>16.64473186302617</v>
       </c>
       <c r="G25">
-        <v>20.78554630699825</v>
+        <v>19.42812380431899</v>
       </c>
       <c r="I25">
-        <v>2.704421185609501</v>
+        <v>2.625416626592517</v>
       </c>
       <c r="J25">
-        <v>8.716187102593603</v>
+        <v>8.915358943346096</v>
       </c>
       <c r="K25">
-        <v>14.35271096259449</v>
+        <v>13.8198985485568</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.56648577846954</v>
       </c>
       <c r="M25">
-        <v>12.82572324315231</v>
+        <v>8.85121615495663</v>
       </c>
       <c r="N25">
-        <v>7.110294594483105</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.92135098720693</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.173471068246891</v>
       </c>
       <c r="Q25">
-        <v>13.96900585800611</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.55414809868747</v>
       </c>
     </row>
   </sheetData>
